--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1190.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1190.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.107959775683061</v>
+        <v>1.173414826393127</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.436054944992065</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.366298913955688</v>
       </c>
       <c r="E1">
-        <v>1.064594239147674</v>
+        <v>1.237086176872253</v>
       </c>
     </row>
   </sheetData>
